--- a/agent/models/cv_results/regKNN.xlsx
+++ b/agent/models/cv_results/regKNN.xlsx
@@ -555,16 +555,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003597688674926758</v>
+        <v>0.003892183303833008</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004896483663515566</v>
+        <v>0.000907157259721168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002598285675048828</v>
+        <v>0.002593231201171875</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0004894925855560162</v>
+        <v>0.0004854644284986647</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -585,25 +585,25 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>-0.4635000000000001</v>
+        <v>-0.498</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.4834170854271357</v>
+        <v>-0.450251256281407</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.4482412060301508</v>
+        <v>-0.4623115577889447</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.4482412060301507</v>
+        <v>-0.4819095477386935</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.4562814070351759</v>
+        <v>-0.4698492462311559</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.4599361809045227</v>
+        <v>-0.4724643216080402</v>
       </c>
       <c r="P2" t="n">
-        <v>0.013045734401756</v>
+        <v>0.01639890649522201</v>
       </c>
       <c r="Q2" t="n">
         <v>39</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.003397274017333985</v>
+        <v>0.002998161315917969</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004888698031519313</v>
+        <v>2.78041453115716e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002198934555053711</v>
+        <v>0.002598190307617188</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0003995895954760235</v>
+        <v>0.0004896093863255838</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -665,25 +665,25 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>-0.4635000000000001</v>
+        <v>-0.498</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.4834170854271357</v>
+        <v>-0.4502512562814071</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.4482412060301508</v>
+        <v>-0.4623115577889447</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.4482412060301507</v>
+        <v>-0.4819095477386935</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.4562814070351759</v>
+        <v>-0.4698492462311559</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.4599361809045227</v>
+        <v>-0.4724643216080402</v>
       </c>
       <c r="P3" t="n">
-        <v>0.013045734401756</v>
+        <v>0.016398906495222</v>
       </c>
       <c r="Q3" t="n">
         <v>39</v>
@@ -715,16 +715,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003397750854492188</v>
+        <v>0.002998208999633789</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004889672785356438</v>
+        <v>2.431401974483864e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002798223495483399</v>
+        <v>0.002798128128051758</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0003996615299478607</v>
+        <v>0.0003997331727560715</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -745,28 +745,28 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-0.3981889638663679</v>
+        <v>-0.4364908939016631</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.4527754576342543</v>
+        <v>-0.4287554759212979</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.4188203264106474</v>
+        <v>-0.3943804756480618</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.3937403604717331</v>
+        <v>-0.4225393740936191</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.4230235635942888</v>
+        <v>-0.4064497248545939</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.4173097343954583</v>
+        <v>-0.4177231888838472</v>
       </c>
       <c r="P4" t="n">
-        <v>0.0210421791171121</v>
+        <v>0.0152912197114178</v>
       </c>
       <c r="Q4" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R4" t="n">
         <v>-0</v>
@@ -795,16 +795,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.003597927093505859</v>
+        <v>0.003597450256347656</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004900376712804197</v>
+        <v>0.0004895510033578063</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002798604965209961</v>
+        <v>0.002598667144775391</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0004000917342541231</v>
+        <v>0.0004895120620278284</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -825,49 +825,49 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>-0.4</v>
+        <v>-0.43425</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.4587939698492462</v>
+        <v>-0.4389447236180904</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.4216080402010051</v>
+        <v>-0.3907035175879397</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.3864321608040202</v>
+        <v>-0.4256281407035177</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.4298994974874372</v>
+        <v>-0.3972361809045227</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.4193467336683417</v>
+        <v>-0.417352512562814</v>
       </c>
       <c r="P5" t="n">
-        <v>0.02502088721145921</v>
+        <v>0.01967267350222596</v>
       </c>
       <c r="Q5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.2348618090452262</v>
+        <v>-0.2343592964824121</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.2314930991217064</v>
+        <v>-0.2467377666248432</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.2322459222082811</v>
+        <v>-0.2411543287327478</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.2361355081555835</v>
+        <v>-0.2394604767879548</v>
       </c>
       <c r="V5" t="n">
-        <v>-0.2383939774153074</v>
+        <v>-0.2413425345043915</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.2346260631892209</v>
+        <v>-0.2406108806264699</v>
       </c>
       <c r="X5" t="n">
-        <v>0.002530285073573026</v>
+        <v>0.003969259844864344</v>
       </c>
     </row>
     <row r="6">
@@ -875,16 +875,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.003397846221923828</v>
+        <v>0.003797245025634765</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004895704682168957</v>
+        <v>0.0003998043818793966</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002598333358764649</v>
+        <v>0.002998113632202148</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0004895315423694705</v>
+        <v>5.840038639982171e-07</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -905,25 +905,25 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>-0.3830215857227228</v>
+        <v>-0.4265162992297566</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.4294986533586414</v>
+        <v>-0.3989435953321156</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.4104585706544324</v>
+        <v>-0.3790883887862664</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.3944419898581488</v>
+        <v>-0.4200848674539966</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.4005897949383785</v>
+        <v>-0.395475354219893</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.4036021189064647</v>
+        <v>-0.4040217010044057</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01571102691234786</v>
+        <v>0.01723095774734843</v>
       </c>
       <c r="Q6" t="n">
         <v>35</v>
@@ -955,16 +955,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.003997087478637695</v>
+        <v>0.003997516632080078</v>
       </c>
       <c r="C7" t="n">
-        <v>1.305872339022556e-06</v>
+        <v>5.917393515582492e-07</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002199172973632812</v>
+        <v>0.003197908401489258</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0003989939302123497</v>
+        <v>0.0003995895670251222</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -985,49 +985,49 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>-0.3813333333333334</v>
+        <v>-0.426</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.431323283082077</v>
+        <v>-0.4053601340033502</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.4155778894472361</v>
+        <v>-0.3738693467336683</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.3968174204355109</v>
+        <v>-0.4241206030150754</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.4050251256281408</v>
+        <v>-0.3916247906197655</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.4060154103852597</v>
+        <v>-0.4041949748743719</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01689211672267353</v>
+        <v>0.01975601492027023</v>
       </c>
       <c r="Q7" t="n">
         <v>36</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.2884840871021776</v>
+        <v>-0.2772613065326633</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.2755750731911335</v>
+        <v>-0.2829778335424509</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.2796737766624843</v>
+        <v>-0.2914261815140109</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.2866583019657047</v>
+        <v>-0.2803429527394395</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.2815140108741113</v>
+        <v>-0.2887076537013802</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.2823810499591223</v>
+        <v>-0.2841431856059889</v>
       </c>
       <c r="X7" t="n">
-        <v>0.004689229197668955</v>
+        <v>0.005235197670422399</v>
       </c>
     </row>
     <row r="8">
@@ -1035,16 +1035,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002997875213623047</v>
+        <v>0.003996992111206054</v>
       </c>
       <c r="C8" t="n">
-        <v>2.611744678045111e-07</v>
+        <v>0.0006314297130009049</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00299830436706543</v>
+        <v>0.00339813232421875</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0006322589461375354</v>
+        <v>0.0004894342955052543</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -1065,25 +1065,25 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>-0.3742131008066569</v>
+        <v>-0.4091405430376489</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.4222568279838802</v>
+        <v>-0.4051194600459305</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.4051046043606692</v>
+        <v>-0.3591848173154114</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.3817583522786752</v>
+        <v>-0.407733781124487</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.4054301405674512</v>
+        <v>-0.3990120390521658</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.3977526051994665</v>
+        <v>-0.3960381281151287</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01745495785623389</v>
+        <v>0.01875069507467166</v>
       </c>
       <c r="Q8" t="n">
         <v>33</v>
@@ -1115,16 +1115,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.003198099136352539</v>
+        <v>0.003996896743774414</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003997326608234803</v>
+        <v>7.599533772711385e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002798175811767578</v>
+        <v>0.0027984619140625</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0003997565275612929</v>
+        <v>0.0003995426658051234</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -1145,49 +1145,49 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>-0.3768750000000001</v>
+        <v>-0.408375</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.4256281407035176</v>
+        <v>-0.4178391959798995</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.4141959798994975</v>
+        <v>-0.3562814070351759</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.3870603015075377</v>
+        <v>-0.4113065326633166</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.4090452261306534</v>
+        <v>-0.4012562814070351</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.4025609296482412</v>
+        <v>-0.3990116834170855</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01794186821788918</v>
+        <v>0.02201919610037214</v>
       </c>
       <c r="Q9" t="n">
         <v>34</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.3126570351758794</v>
+        <v>-0.3036118090452262</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.2990276035131744</v>
+        <v>-0.3060853199498119</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.3074968632371393</v>
+        <v>-0.3140840652446675</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.3127038895859473</v>
+        <v>-0.3099749058971142</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.3094416562107905</v>
+        <v>-0.312547051442911</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.3082654095445861</v>
+        <v>-0.3092606303159461</v>
       </c>
       <c r="X9" t="n">
-        <v>0.005025888193810664</v>
+        <v>0.003913260932037151</v>
       </c>
     </row>
     <row r="10">
@@ -1195,16 +1195,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003197669982910156</v>
+        <v>0.003597831726074219</v>
       </c>
       <c r="C10" t="n">
-        <v>0.000399589879984926</v>
+        <v>0.0004895705146603966</v>
       </c>
       <c r="D10" t="n">
-        <v>0.002998208999633789</v>
+        <v>0.003198146820068359</v>
       </c>
       <c r="E10" t="n">
-        <v>1.168007727996434e-07</v>
+        <v>0.0003999472055278821</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -1225,25 +1225,25 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>-0.3688842005333277</v>
+        <v>-0.3955825457168319</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.4126826437196616</v>
+        <v>-0.3984082392106958</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.3942814931324186</v>
+        <v>-0.3483475451612571</v>
       </c>
       <c r="M10" t="n">
-        <v>-0.37369230391937</v>
+        <v>-0.4105179098750394</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.4050797232444545</v>
+        <v>-0.3983036357697405</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.3909240729098465</v>
+        <v>-0.3902319751467129</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0171334756984492</v>
+        <v>0.02157061068997172</v>
       </c>
       <c r="Q10" t="n">
         <v>29</v>
@@ -1275,16 +1275,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003597784042358399</v>
+        <v>0.003997135162353516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004896298379913624</v>
+        <v>4.862803948967728e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00259861946105957</v>
+        <v>0.002798700332641602</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000489667920208884</v>
+        <v>0.0003995421536284359</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -1305,49 +1305,49 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>-0.3725</v>
+        <v>-0.3936999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.4155778894472361</v>
+        <v>-0.4088442211055276</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.4039195979899498</v>
+        <v>-0.3428140703517588</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.3733668341708543</v>
+        <v>-0.4177889447236182</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.4102512562814071</v>
+        <v>-0.4045226130653266</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.3951231155778895</v>
+        <v>-0.3935339698492462</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01849203967727665</v>
+        <v>0.02651789452601157</v>
       </c>
       <c r="Q11" t="n">
         <v>32</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.3216834170854271</v>
+        <v>-0.3195226130653266</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.3106148055207027</v>
+        <v>-0.3198243412797993</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.3182434127979925</v>
+        <v>-0.3311668757841908</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.3228607277289838</v>
+        <v>-0.3199247176913425</v>
       </c>
       <c r="V11" t="n">
-        <v>-0.3196235884567127</v>
+        <v>-0.3241154328732748</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.3186051903179637</v>
+        <v>-0.3229107961387868</v>
       </c>
       <c r="X11" t="n">
-        <v>0.004303471752894012</v>
+        <v>0.004461763180704971</v>
       </c>
     </row>
     <row r="12">
@@ -1355,16 +1355,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.003397798538208008</v>
+        <v>0.003997659683227539</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0004898043250660251</v>
+        <v>3.234066955149302e-07</v>
       </c>
       <c r="D12" t="n">
-        <v>0.002798128128051758</v>
+        <v>0.003197765350341797</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00074776757839637</v>
+        <v>0.0003995426942593646</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -1385,28 +1385,28 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>-0.3644826312184856</v>
+        <v>-0.4000182411329373</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.403491864596868</v>
+        <v>-0.3896972396145822</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.3951686505676101</v>
+        <v>-0.3492618120466463</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.3755879892787259</v>
+        <v>-0.4062186922786745</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.4050049925814423</v>
+        <v>-0.3905986452770467</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.3887472256486264</v>
+        <v>-0.3871589260699774</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01603053402756157</v>
+        <v>0.01991533392635043</v>
       </c>
       <c r="Q12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R12" t="n">
         <v>-0</v>
@@ -1435,16 +1435,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.003198432922363281</v>
+        <v>0.00359797477722168</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0004000426013688889</v>
+        <v>0.0004895901923753198</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002998018264770508</v>
+        <v>0.002998161315917969</v>
       </c>
       <c r="E13" t="n">
-        <v>5.560829062314319e-07</v>
+        <v>1.15232906089731e-06</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1465,49 +1465,49 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>-0.36725</v>
+        <v>-0.4049166666666666</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.4041876046901173</v>
+        <v>-0.3958961474036851</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.4033500837520939</v>
+        <v>-0.3463986599664992</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.3782244556113902</v>
+        <v>-0.4128140703517588</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.4131490787269682</v>
+        <v>-0.3961474036850922</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.3932322445561139</v>
+        <v>-0.3912345896147403</v>
       </c>
       <c r="P13" t="n">
-        <v>0.01743204881953815</v>
+        <v>0.02327659627980753</v>
       </c>
       <c r="Q13" t="n">
         <v>30</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.3330820770519263</v>
+        <v>-0.328140703517588</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.3169803429527394</v>
+        <v>-0.3298828941865329</v>
       </c>
       <c r="T13" t="n">
-        <v>-0.3252823086574655</v>
+        <v>-0.3377038895859473</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.3313885403596821</v>
+        <v>-0.3273943956503555</v>
       </c>
       <c r="V13" t="n">
-        <v>-0.3314512756168967</v>
+        <v>-0.334232538686742</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.327636908927742</v>
+        <v>-0.3314708843254331</v>
       </c>
       <c r="X13" t="n">
-        <v>0.005956182138811002</v>
+        <v>0.003916801404236728</v>
       </c>
     </row>
     <row r="14">
@@ -1515,16 +1515,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.002998161315917969</v>
+        <v>0.00659637451171875</v>
       </c>
       <c r="C14" t="n">
-        <v>2.78041453115716e-07</v>
+        <v>0.004797155060966992</v>
       </c>
       <c r="D14" t="n">
-        <v>0.002997779846191406</v>
+        <v>0.004995584487915039</v>
       </c>
       <c r="E14" t="n">
-        <v>4.90933901833868e-07</v>
+        <v>0.002754517600795293</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1545,28 +1545,28 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>-0.3646968241379928</v>
+        <v>-0.3958773409629988</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.4028590820060758</v>
+        <v>-0.3890324810142141</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.3930607280699934</v>
+        <v>-0.3508997503251707</v>
       </c>
       <c r="M14" t="n">
-        <v>-0.3762523766877037</v>
+        <v>-0.4088277993099461</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.4031536645701432</v>
+        <v>-0.3893668596212264</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.3880045350943818</v>
+        <v>-0.3868008462467112</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01521237254654222</v>
+        <v>0.01932885265258193</v>
       </c>
       <c r="Q14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R14" t="n">
         <v>-0</v>
@@ -1595,16 +1595,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.003397798538208008</v>
+        <v>0.003397893905639648</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0004894148577511348</v>
+        <v>0.0004897263728100592</v>
       </c>
       <c r="D15" t="n">
-        <v>0.002998113632202148</v>
+        <v>0.00279841423034668</v>
       </c>
       <c r="E15" t="n">
-        <v>1.44631871109992e-06</v>
+        <v>0.0003995180521274836</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1625,49 +1625,49 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>-0.3690714285714286</v>
+        <v>-0.3987857142857142</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.404091888011486</v>
+        <v>-0.3961234745154344</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.4012921751615219</v>
+        <v>-0.3522613065326633</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.3793969849246232</v>
+        <v>-0.4145010768126347</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.4137114142139268</v>
+        <v>-0.3974156496769563</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.3935127781765974</v>
+        <v>-0.3918174443646806</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01659552150292818</v>
+        <v>0.02086946959215494</v>
       </c>
       <c r="Q15" t="n">
         <v>31</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.3400035893754486</v>
+        <v>-0.3387114142139268</v>
       </c>
       <c r="S15" t="n">
-        <v>-0.326133715719663</v>
+        <v>-0.3406703710342355</v>
       </c>
       <c r="T15" t="n">
-        <v>-0.3316006452769313</v>
+        <v>-0.345025990320846</v>
       </c>
       <c r="U15" t="n">
-        <v>-0.3399892453844774</v>
+        <v>-0.334163828643126</v>
       </c>
       <c r="V15" t="n">
-        <v>-0.3371930453486289</v>
+        <v>-0.340724144111848</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.3349840482210299</v>
+        <v>-0.3398591496647964</v>
       </c>
       <c r="X15" t="n">
-        <v>0.00538336811341213</v>
+        <v>0.003517286342444579</v>
       </c>
     </row>
     <row r="16">
@@ -1675,16 +1675,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.003198385238647461</v>
+        <v>0.003797721862792969</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000399233088914483</v>
+        <v>0.000400042601368889</v>
       </c>
       <c r="D16" t="n">
-        <v>0.00319833755493164</v>
+        <v>0.00359807014465332</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0003993759403771293</v>
+        <v>0.0007998229263542778</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -1705,28 +1705,28 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>-0.3647234398613472</v>
+        <v>-0.3992392336840346</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.398733007710861</v>
+        <v>-0.3875326519608907</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.3894427905211155</v>
+        <v>-0.3448285410932076</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.3719202595601575</v>
+        <v>-0.4050715964929474</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.4005062776674132</v>
+        <v>-0.3904053347397703</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.3850651550641788</v>
+        <v>-0.3854154715941702</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01435949727962725</v>
+        <v>0.02123270947741015</v>
       </c>
       <c r="Q16" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="R16" t="n">
         <v>-0</v>
@@ -1755,16 +1755,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.002998018264770508</v>
+        <v>0.003197669982910156</v>
       </c>
       <c r="C17" t="n">
-        <v>3.234066955149302e-07</v>
+        <v>0.0003998285969164375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00299830436706543</v>
+        <v>0.003798437118530273</v>
       </c>
       <c r="E17" t="n">
-        <v>3.504023183989303e-07</v>
+        <v>0.0004006418152197054</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1785,49 +1785,49 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>-0.3700625000000001</v>
+        <v>-0.4058125</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.3998743718592965</v>
+        <v>-0.3932788944723619</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.3943467336683417</v>
+        <v>-0.3423994974874373</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.3744346733668343</v>
+        <v>-0.4089195979899498</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.4099874371859297</v>
+        <v>-0.3986809045226131</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.3897411432160804</v>
+        <v>-0.3898182788944724</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01520094223220965</v>
+        <v>0.02432997461277115</v>
       </c>
       <c r="Q17" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.3443624371859296</v>
+        <v>-0.3411275125628141</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.3358845671267253</v>
+        <v>-0.3447772898368884</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.3326223337515684</v>
+        <v>-0.3532936010037641</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.34383626097867</v>
+        <v>-0.3362139272271017</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.3413582183186951</v>
+        <v>-0.3440872020075282</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.3396127634723177</v>
+        <v>-0.3438999065276193</v>
       </c>
       <c r="X17" t="n">
-        <v>0.004608893573618427</v>
+        <v>0.005582236524609205</v>
       </c>
     </row>
     <row r="18">
@@ -1835,16 +1835,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.003197860717773437</v>
+        <v>0.003197908401489258</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0003998518381055636</v>
+        <v>0.0003999473476551629</v>
       </c>
       <c r="D18" t="n">
-        <v>0.003197813034057617</v>
+        <v>0.003797292709350586</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0003997565275612929</v>
+        <v>0.0007475636655877913</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1865,28 +1865,28 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>-0.3639384538312471</v>
+        <v>-0.3970023106833706</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.4010398697100426</v>
+        <v>-0.380683248880917</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.3867032792018643</v>
+        <v>-0.341469662179323</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.3673463215286976</v>
+        <v>-0.4030781441370548</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.4012580109310372</v>
+        <v>-0.3912315719279589</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.3840571870405777</v>
+        <v>-0.3826929875617249</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01597058614448908</v>
+        <v>0.02189347101273892</v>
       </c>
       <c r="Q18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R18" t="n">
         <v>-0</v>
@@ -1915,16 +1915,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.003597784042358399</v>
+        <v>0.003597688674926758</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004894341793641785</v>
+        <v>0.0004895510730258258</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002798223495483399</v>
+        <v>0.003397464752197266</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0003996611885983604</v>
+        <v>0.0004900770997545335</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1945,49 +1945,49 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>-0.3687777777777779</v>
+        <v>-0.4005555555555556</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.4029592406476828</v>
+        <v>-0.3866554997208265</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.3910106085985482</v>
+        <v>-0.3380234505862647</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.3707426018983809</v>
+        <v>-0.4060301507537687</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.4115019542155222</v>
+        <v>-0.3982691233947516</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.3889984366275824</v>
+        <v>-0.3859067560022334</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01701476849527612</v>
+        <v>0.02476181748960364</v>
       </c>
       <c r="Q19" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="R19" t="n">
-        <v>-0.3467057509771078</v>
+        <v>-0.3473618090452261</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.3394116826990101</v>
+        <v>-0.347037501742646</v>
       </c>
       <c r="T19" t="n">
-        <v>-0.3388540359682141</v>
+        <v>-0.357033319392165</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.3512477345601562</v>
+        <v>-0.3419210929875924</v>
       </c>
       <c r="V19" t="n">
-        <v>-0.3415586226125749</v>
+        <v>-0.3465913843580092</v>
       </c>
       <c r="W19" t="n">
-        <v>-0.3435555653634126</v>
+        <v>-0.3479890215051278</v>
       </c>
       <c r="X19" t="n">
-        <v>0.004740402069285619</v>
+        <v>0.004937028573679535</v>
       </c>
     </row>
     <row r="20">
@@ -1995,16 +1995,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.003398036956787109</v>
+        <v>0.004197120666503906</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0004895122245994571</v>
+        <v>0.0003999472908042566</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002997970581054687</v>
+        <v>0.003397655487060547</v>
       </c>
       <c r="E20" t="n">
-        <v>4.90933901833868e-07</v>
+        <v>0.000488753002419423</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -2025,28 +2025,28 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>-0.3622767208783073</v>
+        <v>-0.396825428449786</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.3972330553003429</v>
+        <v>-0.3826383994553487</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.3870984266443292</v>
+        <v>-0.338112081245507</v>
       </c>
       <c r="M20" t="n">
-        <v>-0.3657318097686965</v>
+        <v>-0.4020909700275691</v>
       </c>
       <c r="N20" t="n">
-        <v>-0.4012505349405182</v>
+        <v>-0.3885697908971434</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.3827181095064388</v>
+        <v>-0.3816473340150708</v>
       </c>
       <c r="P20" t="n">
-        <v>0.0159981647067713</v>
+        <v>0.02277076045186692</v>
       </c>
       <c r="Q20" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="R20" t="n">
         <v>-0</v>
@@ -2075,16 +2075,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.00319819450378418</v>
+        <v>0.003197479248046875</v>
       </c>
       <c r="C21" t="n">
-        <v>0.000399685730884368</v>
+        <v>0.0004000432834166933</v>
       </c>
       <c r="D21" t="n">
-        <v>0.002798080444335938</v>
+        <v>0.003598213195800781</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0003993518174578142</v>
+        <v>0.0004900780972565694</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -2105,49 +2105,49 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>-0.36875</v>
+        <v>-0.39895</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.3972361809045226</v>
+        <v>-0.3876884422110553</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.3915577889447235</v>
+        <v>-0.3318592964824121</v>
       </c>
       <c r="M21" t="n">
-        <v>-0.3685427135678392</v>
+        <v>-0.4068341708542713</v>
       </c>
       <c r="N21" t="n">
-        <v>-0.4096984924623115</v>
+        <v>-0.3927638190954774</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.3871570351758794</v>
+        <v>-0.3836191457286432</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01621348217899462</v>
+        <v>0.02665797705420858</v>
       </c>
       <c r="Q21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R21" t="n">
-        <v>-0.3526005025125628</v>
+        <v>-0.3506281407035176</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.3440401505646174</v>
+        <v>-0.3501631116687579</v>
       </c>
       <c r="T21" t="n">
-        <v>-0.341129234629862</v>
+        <v>-0.3607779171894605</v>
       </c>
       <c r="U21" t="n">
-        <v>-0.3554579673776663</v>
+        <v>-0.34465495608532</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.3472396486825596</v>
+        <v>-0.3468130489335006</v>
       </c>
       <c r="W21" t="n">
-        <v>-0.3480935007534536</v>
+        <v>-0.3506074349161113</v>
       </c>
       <c r="X21" t="n">
-        <v>0.005295434774752107</v>
+        <v>0.00554014315277741</v>
       </c>
     </row>
     <row r="22">
@@ -2155,16 +2155,16 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.003797245025634765</v>
+        <v>0.003597068786621094</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0003996853326673695</v>
+        <v>0.0004890464164858738</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00299835205078125</v>
+        <v>0.003398370742797851</v>
       </c>
       <c r="E22" t="n">
-        <v>2.611744678045111e-07</v>
+        <v>0.0004896293271745084</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -2185,28 +2185,28 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>-0.3632892376156435</v>
+        <v>-0.3977630018736428</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.3965055197509417</v>
+        <v>-0.3846892150738339</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.3838990081186863</v>
+        <v>-0.3365113812098137</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.3640596328875475</v>
+        <v>-0.4001865614312409</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.4017972917151353</v>
+        <v>-0.3857655070995118</v>
       </c>
       <c r="O22" t="n">
-        <v>-0.3819101380175908</v>
+        <v>-0.3809831333376086</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01598660764257363</v>
+        <v>0.0230854002199834</v>
       </c>
       <c r="Q22" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="R22" t="n">
         <v>-0</v>
@@ -2235,16 +2235,16 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.00299830436706543</v>
+        <v>0.003397703170776367</v>
       </c>
       <c r="C23" t="n">
-        <v>4.623107774177865e-07</v>
+        <v>0.0004892006475402009</v>
       </c>
       <c r="D23" t="n">
-        <v>0.003197813034057617</v>
+        <v>0.003197860717773437</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0003999949745052518</v>
+        <v>0.000399852207724524</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
@@ -2265,49 +2265,49 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>-0.3720000000000001</v>
+        <v>-0.4009090909090909</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.3964824120603016</v>
+        <v>-0.3904065783462769</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.3869346733668342</v>
+        <v>-0.3322064869803563</v>
       </c>
       <c r="M23" t="n">
-        <v>-0.3673366834170855</v>
+        <v>-0.4063956144358155</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.4112380082229329</v>
+        <v>-0.3886249428962996</v>
       </c>
       <c r="O23" t="n">
-        <v>-0.3867983554134309</v>
+        <v>-0.3837085427135678</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01605518087726682</v>
+        <v>0.02657840664297825</v>
       </c>
       <c r="Q23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R23" t="n">
-        <v>-0.3568296025582458</v>
+        <v>-0.3531064412973962</v>
       </c>
       <c r="S23" t="n">
-        <v>-0.3476445762518536</v>
+        <v>-0.3515683814303639</v>
       </c>
       <c r="T23" t="n">
-        <v>-0.345728299304209</v>
+        <v>-0.3645146572373674</v>
       </c>
       <c r="U23" t="n">
-        <v>-0.3571575225276605</v>
+        <v>-0.3483973993384281</v>
       </c>
       <c r="V23" t="n">
-        <v>-0.3500855480780198</v>
+        <v>-0.3504847724421125</v>
       </c>
       <c r="W23" t="n">
-        <v>-0.3514891097439977</v>
+        <v>-0.3536143303491336</v>
       </c>
       <c r="X23" t="n">
-        <v>0.004702959217995115</v>
+        <v>0.005661651462273186</v>
       </c>
     </row>
     <row r="24">
@@ -2315,16 +2315,16 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.003597640991210938</v>
+        <v>0.003597402572631836</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004898041161700017</v>
+        <v>0.0004893174250607499</v>
       </c>
       <c r="D24" t="n">
-        <v>0.003397941589355469</v>
+        <v>0.003398323059082031</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0004896875011448433</v>
+        <v>0.0004897653528101773</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
@@ -2345,28 +2345,28 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>-0.3610244982371422</v>
+        <v>-0.3967788707222922</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.3978543364517717</v>
+        <v>-0.3872324526780862</v>
       </c>
       <c r="L24" t="n">
-        <v>-0.3866992520675264</v>
+        <v>-0.3341242207705691</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.363459369064226</v>
+        <v>-0.3971408733164833</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.4009057407609216</v>
+        <v>-0.385644141140067</v>
       </c>
       <c r="O24" t="n">
-        <v>-0.3819886393163175</v>
+        <v>-0.3801841117254995</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01682020221289779</v>
+        <v>0.02351136906259194</v>
       </c>
       <c r="Q24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="R24" t="n">
         <v>-0</v>
@@ -2395,16 +2395,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.003397893905639648</v>
+        <v>0.003797626495361328</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004897262799526149</v>
+        <v>0.000399399031426803</v>
       </c>
       <c r="D25" t="n">
-        <v>0.002998256683349609</v>
+        <v>0.002998208999633789</v>
       </c>
       <c r="E25" t="n">
-        <v>1.168007727996434e-07</v>
+        <v>7.478898592642843e-07</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
@@ -2425,49 +2425,49 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>-0.3714583333333333</v>
+        <v>-0.401</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.3990368509212729</v>
+        <v>-0.3941792294807371</v>
       </c>
       <c r="L25" t="n">
-        <v>-0.3925041876046901</v>
+        <v>-0.3289782244556114</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.3685092127303182</v>
+        <v>-0.4041038525963149</v>
       </c>
       <c r="N25" t="n">
-        <v>-0.4106783919597991</v>
+        <v>-0.3891959798994975</v>
       </c>
       <c r="O25" t="n">
-        <v>-0.3884373953098827</v>
+        <v>-0.3834914572864322</v>
       </c>
       <c r="P25" t="n">
-        <v>0.01618005066331062</v>
+        <v>0.02774845046034573</v>
       </c>
       <c r="Q25" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="R25" t="n">
-        <v>-0.3609924623115578</v>
+        <v>-0.3580192629815745</v>
       </c>
       <c r="S25" t="n">
-        <v>-0.3526244249268089</v>
+        <v>-0.3547365119196989</v>
       </c>
       <c r="T25" t="n">
-        <v>-0.3515056461731493</v>
+        <v>-0.368736930154747</v>
       </c>
       <c r="U25" t="n">
-        <v>-0.3613864491844416</v>
+        <v>-0.3508260142199917</v>
       </c>
       <c r="V25" t="n">
-        <v>-0.3537222919280635</v>
+        <v>-0.3536804684232538</v>
       </c>
       <c r="W25" t="n">
-        <v>-0.3560462549048042</v>
+        <v>-0.3571998375398532</v>
       </c>
       <c r="X25" t="n">
-        <v>0.004259330807167858</v>
+        <v>0.006210563901317963</v>
       </c>
     </row>
     <row r="26">
@@ -2475,16 +2475,16 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.003397512435913086</v>
+        <v>0.003997468948364257</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0004893564515750084</v>
+        <v>1.230572500282663e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002998447418212891</v>
+        <v>0.003198623657226562</v>
       </c>
       <c r="E26" t="n">
-        <v>4.422005889652111e-07</v>
+        <v>0.0003999486836491331</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
@@ -2505,28 +2505,28 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>-0.3577347251577869</v>
+        <v>-0.4010500770936309</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.397886343476712</v>
+        <v>-0.3871827075527243</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.387567667494408</v>
+        <v>-0.3330943464571889</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.3617410300734159</v>
+        <v>-0.3979405213234865</v>
       </c>
       <c r="N26" t="n">
-        <v>-0.4010996547208963</v>
+        <v>-0.3877235666591332</v>
       </c>
       <c r="O26" t="n">
-        <v>-0.3812058841846439</v>
+        <v>-0.3813982438172327</v>
       </c>
       <c r="P26" t="n">
-        <v>0.01813421058033239</v>
+        <v>0.02476520836233117</v>
       </c>
       <c r="Q26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R26" t="n">
         <v>-0</v>
@@ -2555,16 +2555,16 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.003797674179077149</v>
+        <v>0.003598165512084961</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0003998996071032651</v>
+        <v>0.0004886761899114475</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002998113632202148</v>
+        <v>0.003197765350341797</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0006322590288503894</v>
+        <v>0.0003994228270191069</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -2585,49 +2585,49 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>-0.3678846153846153</v>
+        <v>-0.407</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.3995747970622343</v>
+        <v>-0.3946656358716661</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.3945883262466177</v>
+        <v>-0.3294549671434094</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.3649787398531117</v>
+        <v>-0.4077309625048318</v>
       </c>
       <c r="N27" t="n">
-        <v>-0.409702357943564</v>
+        <v>-0.3931967529957478</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.3873457672980286</v>
+        <v>-0.386409663703131</v>
       </c>
       <c r="P27" t="n">
-        <v>0.0177811210271359</v>
+        <v>0.02910884006322859</v>
       </c>
       <c r="Q27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.3652203324313877</v>
+        <v>-0.3610069578662544</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.3548306148055206</v>
+        <v>-0.3561914873081748</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.3542129138114082</v>
+        <v>-0.3726377762764212</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.3653315317054338</v>
+        <v>-0.3540295338287811</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.3584016986777339</v>
+        <v>-0.3562011388862079</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.3595994182862968</v>
+        <v>-0.3600133788331679</v>
       </c>
       <c r="X27" t="n">
-        <v>0.004850613351594362</v>
+        <v>0.006712809238742689</v>
       </c>
     </row>
     <row r="28">
@@ -2635,16 +2635,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.003397655487060547</v>
+        <v>0.003797245025634765</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0004896289556710072</v>
+        <v>0.0007484429776969727</v>
       </c>
       <c r="D28" t="n">
-        <v>0.00319833755493164</v>
+        <v>0.002997970581054687</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0003999713209621243</v>
+        <v>9.488939639154626e-07</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -2665,28 +2665,28 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>-0.3564532717491508</v>
+        <v>-0.400001453967235</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.3958194690669782</v>
+        <v>-0.3853769464313442</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.3884969520427397</v>
+        <v>-0.3321722144101004</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.3630234945115363</v>
+        <v>-0.3965562152148051</v>
       </c>
       <c r="N28" t="n">
-        <v>-0.4000733695671823</v>
+        <v>-0.3891508101554951</v>
       </c>
       <c r="O28" t="n">
-        <v>-0.3807733113875175</v>
+        <v>-0.3806515280357959</v>
       </c>
       <c r="P28" t="n">
-        <v>0.01769211156853379</v>
+        <v>0.02478785966152013</v>
       </c>
       <c r="Q28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
         <v>-0</v>
@@ -2715,16 +2715,16 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.003597593307495117</v>
+        <v>0.003598451614379883</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0004899600438705251</v>
+        <v>0.0004897853708708007</v>
       </c>
       <c r="D29" t="n">
-        <v>0.003197860717773437</v>
+        <v>0.003397893905639648</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0003999710935720809</v>
+        <v>0.0004892396740747891</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -2745,49 +2745,49 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>-0.3663928571428572</v>
+        <v>-0.4044285714285714</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.3975592246949032</v>
+        <v>-0.3926776740847094</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.3945441493180186</v>
+        <v>-0.3321966977745873</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.3695262024407753</v>
+        <v>-0.4065685570710696</v>
       </c>
       <c r="N29" t="n">
-        <v>-0.4092246949030869</v>
+        <v>-0.3952979181622397</v>
       </c>
       <c r="O29" t="n">
-        <v>-0.3874494256999282</v>
+        <v>-0.3862338837042355</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01668128591687099</v>
+        <v>0.02752541451328456</v>
       </c>
       <c r="Q29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R29" t="n">
-        <v>-0.3676597272074659</v>
+        <v>-0.3645997846374731</v>
       </c>
       <c r="S29" t="n">
-        <v>-0.3575909661229611</v>
+        <v>-0.3576805879189819</v>
       </c>
       <c r="T29" t="n">
-        <v>-0.3579584154866464</v>
+        <v>-0.3744667503136763</v>
       </c>
       <c r="U29" t="n">
-        <v>-0.3660871123857323</v>
+        <v>-0.3555386269940849</v>
       </c>
       <c r="V29" t="n">
-        <v>-0.358935293063273</v>
+        <v>-0.3594102885821832</v>
       </c>
       <c r="W29" t="n">
-        <v>-0.3616463028532158</v>
+        <v>-0.3623392076892799</v>
       </c>
       <c r="X29" t="n">
-        <v>0.004319210693490147</v>
+        <v>0.006763382309721084</v>
       </c>
     </row>
     <row r="30">
@@ -2795,16 +2795,16 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.003397893905639648</v>
+        <v>0.003197765350341797</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0004894342025923959</v>
+        <v>0.0004000188199082972</v>
       </c>
       <c r="D30" t="n">
-        <v>0.003198146820068359</v>
+        <v>0.003797578811645508</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0007478823043224657</v>
+        <v>0.0003998518665378034</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
@@ -2825,28 +2825,28 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>-0.3572300174926144</v>
+        <v>-0.4020504192628742</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.3946381485267219</v>
+        <v>-0.3881241655416851</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.387120229748968</v>
+        <v>-0.3321883912678959</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.3643316548781022</v>
+        <v>-0.3968350120945363</v>
       </c>
       <c r="N30" t="n">
-        <v>-0.3990867812765357</v>
+        <v>-0.3911075144073441</v>
       </c>
       <c r="O30" t="n">
-        <v>-0.3804813663845884</v>
+        <v>-0.3820611005148671</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01668585543345776</v>
+        <v>0.02539183654972466</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R30" t="n">
         <v>-0</v>
@@ -2875,16 +2875,16 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.002997970581054687</v>
+        <v>0.00359807014465332</v>
       </c>
       <c r="C31" t="n">
-        <v>5.352483825837052e-07</v>
+        <v>0.0004896680130773954</v>
       </c>
       <c r="D31" t="n">
-        <v>0.003198385238647461</v>
+        <v>0.003197908401489258</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0003995902498461964</v>
+        <v>0.0004000664041494148</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -2905,49 +2905,49 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>-0.3686666666666667</v>
+        <v>-0.4075</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.3953433835845896</v>
+        <v>-0.3969179229480738</v>
       </c>
       <c r="L31" t="n">
-        <v>-0.3932663316582914</v>
+        <v>-0.3315242881072026</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.3722613065326634</v>
+        <v>-0.4060971524288107</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.4079061976549415</v>
+        <v>-0.3973534338358459</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.3874887772194305</v>
+        <v>-0.3878785594639866</v>
       </c>
       <c r="P31" t="n">
-        <v>0.01481953941836813</v>
+        <v>0.02851036757055318</v>
       </c>
       <c r="Q31" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.3690871021775545</v>
+        <v>-0.3646733668341708</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.3592220828105395</v>
+        <v>-0.3596821413634462</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.3603513174404015</v>
+        <v>-0.3763613550815559</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.3686825595984944</v>
+        <v>-0.3574738603094939</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.3612212463404433</v>
+        <v>-0.3623086574654956</v>
       </c>
       <c r="W31" t="n">
-        <v>-0.3637128616734867</v>
+        <v>-0.3640998762108325</v>
       </c>
       <c r="X31" t="n">
-        <v>0.004272132485214543</v>
+        <v>0.006592445496058379</v>
       </c>
     </row>
     <row r="32">
@@ -2955,16 +2955,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.003997421264648438</v>
+        <v>0.003597450256347656</v>
       </c>
       <c r="C32" t="n">
-        <v>3.873843385999661e-07</v>
+        <v>0.0004896500380488205</v>
       </c>
       <c r="D32" t="n">
-        <v>0.002998113632202148</v>
+        <v>0.003398323059082031</v>
       </c>
       <c r="E32" t="n">
-        <v>2.611744678045111e-07</v>
+        <v>0.0004891821858867867</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
@@ -2985,28 +2985,28 @@
         </is>
       </c>
       <c r="J32" t="n">
-        <v>-0.3556534341023493</v>
+        <v>-0.4016063503615879</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.3938233038829993</v>
+        <v>-0.3880432321119801</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.3886445102945175</v>
+        <v>-0.3327351685922075</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.362966156282519</v>
+        <v>-0.3953802515479438</v>
       </c>
       <c r="N32" t="n">
-        <v>-0.3994285689251171</v>
+        <v>-0.3909217172337662</v>
       </c>
       <c r="O32" t="n">
-        <v>-0.3801031946975005</v>
+        <v>-0.3817373439694972</v>
       </c>
       <c r="P32" t="n">
-        <v>0.01747074375076254</v>
+        <v>0.02492483288382315</v>
       </c>
       <c r="Q32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="R32" t="n">
         <v>-0</v>
@@ -3035,16 +3035,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.003397798538208008</v>
+        <v>0.003197860717773437</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0004899014752722479</v>
+        <v>0.0003998520086989724</v>
       </c>
       <c r="D33" t="n">
-        <v>0.002998065948486328</v>
+        <v>0.003397989273071289</v>
       </c>
       <c r="E33" t="n">
-        <v>9.536743164062499e-08</v>
+        <v>0.0004897458260564344</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -3065,49 +3065,49 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>-0.368125</v>
+        <v>-0.4068125000000001</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.3927449748743719</v>
+        <v>-0.3974246231155779</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.3945665829145729</v>
+        <v>-0.3326005025125628</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.3735866834170855</v>
+        <v>-0.4034861809045225</v>
       </c>
       <c r="N33" t="n">
-        <v>-0.409390703517588</v>
+        <v>-0.396356783919598</v>
       </c>
       <c r="O33" t="n">
-        <v>-0.3876827889447236</v>
+        <v>-0.3873361180904523</v>
       </c>
       <c r="P33" t="n">
-        <v>0.01500302103151966</v>
+        <v>0.0276379881305372</v>
       </c>
       <c r="Q33" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R33" t="n">
-        <v>-0.369786432160804</v>
+        <v>-0.3624371859296482</v>
       </c>
       <c r="S33" t="n">
-        <v>-0.3609865119196988</v>
+        <v>-0.3600297992471769</v>
       </c>
       <c r="T33" t="n">
-        <v>-0.3628528858218318</v>
+        <v>-0.3773133626097867</v>
       </c>
       <c r="U33" t="n">
-        <v>-0.3713221455457968</v>
+        <v>-0.359982747804266</v>
       </c>
       <c r="V33" t="n">
-        <v>-0.3619824341279799</v>
+        <v>-0.3642252195734003</v>
       </c>
       <c r="W33" t="n">
-        <v>-0.3653860819152223</v>
+        <v>-0.3647976630328557</v>
       </c>
       <c r="X33" t="n">
-        <v>0.004288544055100739</v>
+        <v>0.006456906586072363</v>
       </c>
     </row>
     <row r="34">
@@ -3118,13 +3118,13 @@
         <v>0.003198003768920898</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0003997803018748295</v>
+        <v>0.0003997804724987641</v>
       </c>
       <c r="D34" t="n">
-        <v>0.002998208999633789</v>
+        <v>0.003597784042358399</v>
       </c>
       <c r="E34" t="n">
-        <v>2.431401974483864e-07</v>
+        <v>0.0004896290253279352</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -3145,28 +3145,28 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>-0.3576197041057844</v>
+        <v>-0.4006035473610031</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.3938277619084101</v>
+        <v>-0.3892180044344553</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.3884396549177266</v>
+        <v>-0.3334719936200751</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.3630640036127437</v>
+        <v>-0.3959491395487258</v>
       </c>
       <c r="N34" t="n">
-        <v>-0.4007514332203377</v>
+        <v>-0.3882932566997341</v>
       </c>
       <c r="O34" t="n">
-        <v>-0.3807405115530005</v>
+        <v>-0.3815071883327987</v>
       </c>
       <c r="P34" t="n">
-        <v>0.01719314157660132</v>
+        <v>0.02443820051878148</v>
       </c>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
         <v>-0</v>
@@ -3195,16 +3195,16 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.003397846221923828</v>
+        <v>0.003597259521484375</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0004895704449951436</v>
+        <v>0.0004894931429664107</v>
       </c>
       <c r="D35" t="n">
-        <v>0.002998256683349609</v>
+        <v>0.003598356246948242</v>
       </c>
       <c r="E35" t="n">
-        <v>1.168007727996434e-07</v>
+        <v>0.0004898043018553603</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -3225,49 +3225,49 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>-0.3704117647058824</v>
+        <v>-0.4051176470588236</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.3934968962459356</v>
+        <v>-0.3981968666863731</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.39476795743423</v>
+        <v>-0.3334909843334319</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.3744014188590009</v>
+        <v>-0.404108779190068</v>
       </c>
       <c r="N35" t="n">
-        <v>-0.411084835944428</v>
+        <v>-0.392521430682826</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.3888325746378953</v>
+        <v>-0.3866871415903045</v>
       </c>
       <c r="P35" t="n">
-        <v>0.0148305919903592</v>
+        <v>0.02697977329920586</v>
       </c>
       <c r="Q35" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R35" t="n">
-        <v>-0.3712754951226722</v>
+        <v>-0.3651566656813479</v>
       </c>
       <c r="S35" t="n">
-        <v>-0.3632592811277586</v>
+        <v>-0.3620045759834674</v>
       </c>
       <c r="T35" t="n">
-        <v>-0.3641301941102664</v>
+        <v>-0.3780648018303934</v>
       </c>
       <c r="U35" t="n">
-        <v>-0.3704627647796886</v>
+        <v>-0.362019337220459</v>
       </c>
       <c r="V35" t="n">
-        <v>-0.3633404679312127</v>
+        <v>-0.3661967672890988</v>
       </c>
       <c r="W35" t="n">
-        <v>-0.3664936406143197</v>
+        <v>-0.3666884296009533</v>
       </c>
       <c r="X35" t="n">
-        <v>0.003594705490425847</v>
+        <v>0.005928723066642679</v>
       </c>
     </row>
     <row r="36">
@@ -3275,16 +3275,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.003397750854492188</v>
+        <v>0.003397703170776367</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0004898431271176978</v>
+        <v>0.0004892981964229002</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003197860717773437</v>
+        <v>0.003397893905639648</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0003997327461456244</v>
+        <v>0.000489823793784337</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
@@ -3305,28 +3305,28 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>-0.3584046663013059</v>
+        <v>-0.401870393861082</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.3935785632799562</v>
+        <v>-0.3909291281882659</v>
       </c>
       <c r="L36" t="n">
-        <v>-0.3897387738412441</v>
+        <v>-0.3345899731793159</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.3630250017679381</v>
+        <v>-0.3951595767604172</v>
       </c>
       <c r="N36" t="n">
-        <v>-0.40102909810438</v>
+        <v>-0.3864905196691169</v>
       </c>
       <c r="O36" t="n">
-        <v>-0.3811552206589649</v>
+        <v>-0.3818079183316396</v>
       </c>
       <c r="P36" t="n">
-        <v>0.01714223084924638</v>
+        <v>0.02414716246729801</v>
       </c>
       <c r="Q36" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R36" t="n">
         <v>-0</v>
@@ -3355,16 +3355,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.003198003768920898</v>
+        <v>0.003997802734375</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0004001381108439656</v>
+        <v>7.072638022514022e-07</v>
       </c>
       <c r="D37" t="n">
-        <v>0.003397560119628906</v>
+        <v>0.00299835205078125</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0004893176341645481</v>
+        <v>7.835234034135334e-07</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -3385,49 +3385,49 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>-0.3709722222222223</v>
+        <v>-0.4070277777777778</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.3937744276940257</v>
+        <v>-0.400642099385818</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.3970686767169179</v>
+        <v>-0.335175879396985</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.3753489670575098</v>
+        <v>-0.4031267448352874</v>
       </c>
       <c r="N37" t="n">
-        <v>-0.4113623673925181</v>
+        <v>-0.3895309882747069</v>
       </c>
       <c r="O37" t="n">
-        <v>-0.3897053322166387</v>
+        <v>-0.3871006979341151</v>
       </c>
       <c r="P37" t="n">
-        <v>0.01481106467130786</v>
+        <v>0.02660595923812531</v>
       </c>
       <c r="Q37" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R37" t="n">
-        <v>-0.3734366275823562</v>
+        <v>-0.366108319374651</v>
       </c>
       <c r="S37" t="n">
-        <v>-0.364930991217064</v>
+        <v>-0.3636902272410428</v>
       </c>
       <c r="T37" t="n">
-        <v>-0.3651470793252475</v>
+        <v>-0.379722570751429</v>
       </c>
       <c r="U37" t="n">
-        <v>-0.371831869510665</v>
+        <v>-0.3633207862818904</v>
       </c>
       <c r="V37" t="n">
-        <v>-0.3646730796040708</v>
+        <v>-0.3660881081834658</v>
       </c>
       <c r="W37" t="n">
-        <v>-0.3680039294478807</v>
+        <v>-0.3677860023664958</v>
       </c>
       <c r="X37" t="n">
-        <v>0.003817497526396476</v>
+        <v>0.006080997586688822</v>
       </c>
     </row>
     <row r="38">
@@ -3435,16 +3435,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.003197431564331055</v>
+        <v>0.003597688674926758</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0003994703968757247</v>
+        <v>0.0004893568000534954</v>
       </c>
       <c r="D38" t="n">
-        <v>0.003597784042358399</v>
+        <v>0.003198099136352539</v>
       </c>
       <c r="E38" t="n">
-        <v>0.000489726187095153</v>
+        <v>0.0003998521508600908</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
@@ -3465,28 +3465,28 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>-0.3604864135130988</v>
+        <v>-0.4015438648094476</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.3935135376979287</v>
+        <v>-0.3939940090071608</v>
       </c>
       <c r="L38" t="n">
-        <v>-0.3899551978352606</v>
+        <v>-0.3344930738186652</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.3633515809120698</v>
+        <v>-0.3962292179200622</v>
       </c>
       <c r="N38" t="n">
-        <v>-0.401565917922968</v>
+        <v>-0.387178460522425</v>
       </c>
       <c r="O38" t="n">
-        <v>-0.3817745295762652</v>
+        <v>-0.3826877252155522</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01666742703920818</v>
+        <v>0.02453425851779922</v>
       </c>
       <c r="Q38" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R38" t="n">
         <v>-0</v>
@@ -3515,16 +3515,16 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.003597927093505859</v>
+        <v>0.003799819946289063</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0004895510730258258</v>
+        <v>0.0004011047945053451</v>
       </c>
       <c r="D39" t="n">
-        <v>0.003397798538208008</v>
+        <v>0.003195858001708984</v>
       </c>
       <c r="E39" t="n">
-        <v>0.000489609525644998</v>
+        <v>0.0004001501573079993</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
@@ -3545,49 +3545,49 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>-0.3751315789473685</v>
+        <v>-0.4061842105263158</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.3931499603279555</v>
+        <v>-0.4053425019836023</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.3976461253636605</v>
+        <v>-0.3344353345675748</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.3756149166887067</v>
+        <v>-0.4040994445913779</v>
       </c>
       <c r="N39" t="n">
-        <v>-0.4114519968262365</v>
+        <v>-0.3906638455435071</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.3905989156307855</v>
+        <v>-0.3881450674424756</v>
       </c>
       <c r="P39" t="n">
-        <v>0.01381868819956912</v>
+        <v>0.02744734681830084</v>
       </c>
       <c r="Q39" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.3752777043110288</v>
+        <v>-0.3678193599576831</v>
       </c>
       <c r="S39" t="n">
-        <v>-0.3659644720332827</v>
+        <v>-0.3643729776134187</v>
       </c>
       <c r="T39" t="n">
-        <v>-0.3666380505844284</v>
+        <v>-0.3818001716964935</v>
       </c>
       <c r="U39" t="n">
-        <v>-0.3723634682691673</v>
+        <v>-0.3651654229677079</v>
       </c>
       <c r="V39" t="n">
-        <v>-0.366624843161857</v>
+        <v>-0.3691606682955822</v>
       </c>
       <c r="W39" t="n">
-        <v>-0.3693737076719529</v>
+        <v>-0.3696637201061771</v>
       </c>
       <c r="X39" t="n">
-        <v>0.003753899523914896</v>
+        <v>0.006311494529130612</v>
       </c>
     </row>
     <row r="40">
@@ -3595,16 +3595,16 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.003398370742797851</v>
+        <v>0.003797674179077149</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0004904079827642332</v>
+        <v>0.0003997813256173447</v>
       </c>
       <c r="D40" t="n">
-        <v>0.003197908401489258</v>
+        <v>0.003198862075805664</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0003997088154145095</v>
+        <v>0.0003999487404998413</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
@@ -3625,28 +3625,28 @@
         </is>
       </c>
       <c r="J40" t="n">
-        <v>-0.3607560731513364</v>
+        <v>-0.4013187511579625</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.3917596328854591</v>
+        <v>-0.3939705266245931</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.3916593982253598</v>
+        <v>-0.3354691151293502</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.3621223464428621</v>
+        <v>-0.395977228219083</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.4026790754838225</v>
+        <v>-0.3873762329701393</v>
       </c>
       <c r="O40" t="n">
-        <v>-0.3817953052377679</v>
+        <v>-0.3828223708202256</v>
       </c>
       <c r="P40" t="n">
-        <v>0.01710201514536335</v>
+        <v>0.02409363493384421</v>
       </c>
       <c r="Q40" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="R40" t="n">
         <v>-0</v>
@@ -3675,16 +3675,16 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.003797531127929688</v>
+        <v>0.003197860717773437</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0003999472055278821</v>
+        <v>0.0003993754279866258</v>
       </c>
       <c r="D41" t="n">
-        <v>0.002998828887939453</v>
+        <v>0.003597927093505859</v>
       </c>
       <c r="E41" t="n">
-        <v>3.989505894346597e-07</v>
+        <v>0.0004896491789828838</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
@@ -3705,49 +3705,49 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>-0.3749500000000001</v>
+        <v>-0.4061250000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.3899748743718593</v>
+        <v>-0.4045728643216082</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.3994723618090453</v>
+        <v>-0.3359296482412061</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.3732914572864321</v>
+        <v>-0.4035427135678391</v>
       </c>
       <c r="N41" t="n">
-        <v>-0.4134673366834171</v>
+        <v>-0.3919095477386935</v>
       </c>
       <c r="O41" t="n">
-        <v>-0.3902312060301507</v>
+        <v>-0.3884159547738694</v>
       </c>
       <c r="P41" t="n">
-        <v>0.01513838022392574</v>
+        <v>0.0267226211506673</v>
       </c>
       <c r="Q41" t="n">
         <v>27</v>
       </c>
       <c r="R41" t="n">
-        <v>-0.3755276381909547</v>
+        <v>-0.3686934673366835</v>
       </c>
       <c r="S41" t="n">
-        <v>-0.3673212045169386</v>
+        <v>-0.3658782936010038</v>
       </c>
       <c r="T41" t="n">
-        <v>-0.3678293601003764</v>
+        <v>-0.3839272271016311</v>
       </c>
       <c r="U41" t="n">
-        <v>-0.3742534504391468</v>
+        <v>-0.3648431618569636</v>
       </c>
       <c r="V41" t="n">
-        <v>-0.3647051442910916</v>
+        <v>-0.3706524466750313</v>
       </c>
       <c r="W41" t="n">
-        <v>-0.3699273595077016</v>
+        <v>-0.3707989193142627</v>
       </c>
       <c r="X41" t="n">
-        <v>0.004208167325447997</v>
+        <v>0.006877360713587338</v>
       </c>
     </row>
   </sheetData>
